--- a/medicine/Mort/Nécropole_nationale_de_Soupir/Nécropole_nationale_de_Soupir.xlsx
+++ b/medicine/Mort/Nécropole_nationale_de_Soupir/Nécropole_nationale_de_Soupir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Soupir</t>
+          <t>Nécropole_nationale_de_Soupir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nécropoles nationales de Soupir sont deux cimetières militaires français de la Première Guerre mondiale, situés sur le territoire de la commune de Soupir, dans le département de l'Aisne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Soupir</t>
+          <t>Nécropole_nationale_de_Soupir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les deux nécropoles nationales de Soupir sont situées de part et d'autre de la R.D. 925, entre Vailly-sur-Aisne et Bourg-et-Comin, sur le Chemin des Dames.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Soupir</t>
+          <t>Nécropole_nationale_de_Soupir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale Soupir no 1 fut créée au cours de la Grande Guerre. En 1920, on y regroupa les corps provenant de divers cimetières du Chemin des Dames. La découverte de nouveaux corps, par la suite, a rendu nécessaire la création de la nécropole Soupir no 2, en 1934, de l'autre côté de la route.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Soupir</t>
+          <t>Nécropole_nationale_de_Soupir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nécropole nationale Soupir no 1
-Créée en 1920 sur 2,7 ha, elle rassemble 7 808 corps dont 4 720 inhumés dans des tombes individuelles 3 088 en trois ossuaires et 266 corps provenant d'autres cimetières dans quatre fosses communes, 1 belge et 1 russe[1]. On y a regroupé également 266 corps dans quatre ossuaires provenant des sites de Viel-Arcy, Glennes, Pargny-Filain et Athies-sous-Laon[2].
-Nécropole nationale Soupir no 2
-Ce cimetière militaire de 1,3 ha, créé en 1934, rassemble 2 829 corps dont 250 en un ossuaire, 27 tombes russes, 5 belges et 2 britanniques. En 1954, 545 corps de soldats français tués pendant la Campagne de France de 1940 sont inhumés dans cette nécropole ; 33 corps de civils belges provenant du cimetière communal de Laon y sont inhumés en 1988 [1],[3].
+          <t>Nécropole nationale Soupir no 1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créée en 1920 sur 2,7 ha, elle rassemble 7 808 corps dont 4 720 inhumés dans des tombes individuelles 3 088 en trois ossuaires et 266 corps provenant d'autres cimetières dans quatre fosses communes, 1 belge et 1 russe. On y a regroupé également 266 corps dans quatre ossuaires provenant des sites de Viel-Arcy, Glennes, Pargny-Filain et Athies-sous-Laon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nécropole_nationale_de_Soupir</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_nationale_de_Soupir</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nécropole nationale Soupir no 2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière militaire de 1,3 ha, créé en 1934, rassemble 2 829 corps dont 250 en un ossuaire, 27 tombes russes, 5 belges et 2 britanniques. En 1954, 545 corps de soldats français tués pendant la Campagne de France de 1940 sont inhumés dans cette nécropole ; 33 corps de civils belges provenant du cimetière communal de Laon y sont inhumés en 1988 ,.
 			Nécropole nationale de Soupir, panneau
 			Nécropole nationale de Soupir, section française
 			Nécropole nationale et cimetière militaire allemand de Soupir
